--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08195710420101895</v>
+        <v>0.08479145503580601</v>
       </c>
       <c r="J2" t="n">
-        <v>1015.406729896279</v>
+        <v>1120.86415560373</v>
       </c>
       <c r="K2" t="n">
-        <v>1208886.002212778</v>
+        <v>1721580.633432846</v>
       </c>
       <c r="L2" t="n">
-        <v>1099.493520768894</v>
+        <v>1312.090177325037</v>
       </c>
       <c r="M2" t="n">
-        <v>0.771954714524781</v>
+        <v>0.6752395624556998</v>
       </c>
     </row>
   </sheetData>
